--- a/natmiOut/OldD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.501551988974111</v>
+        <v>0.363728</v>
       </c>
       <c r="H2">
-        <v>0.501551988974111</v>
+        <v>1.091184</v>
       </c>
       <c r="I2">
-        <v>0.6280830667937196</v>
+        <v>0.3031196334509865</v>
       </c>
       <c r="J2">
-        <v>0.6280830667937196</v>
+        <v>0.3031196334509865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>0.8278064775787198</v>
+        <v>0.7584892729599999</v>
       </c>
       <c r="R2">
-        <v>0.8278064775787198</v>
+        <v>6.82640345664</v>
       </c>
       <c r="S2">
-        <v>0.008763638348000202</v>
+        <v>0.005316027791871308</v>
       </c>
       <c r="T2">
-        <v>0.008763638348000202</v>
+        <v>0.005316027791871307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.501551988974111</v>
+        <v>0.363728</v>
       </c>
       <c r="H3">
-        <v>0.501551988974111</v>
+        <v>1.091184</v>
       </c>
       <c r="I3">
-        <v>0.6280830667937196</v>
+        <v>0.3031196334509865</v>
       </c>
       <c r="J3">
-        <v>0.6280830667937196</v>
+        <v>0.3031196334509865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>51.1000444613552</v>
+        <v>37.063218668944</v>
       </c>
       <c r="R3">
-        <v>51.1000444613552</v>
+        <v>333.568968020496</v>
       </c>
       <c r="S3">
-        <v>0.5409746376180807</v>
+        <v>0.2597651773391664</v>
       </c>
       <c r="T3">
-        <v>0.5409746376180807</v>
+        <v>0.2597651773391664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.501551988974111</v>
+        <v>0.363728</v>
       </c>
       <c r="H4">
-        <v>0.501551988974111</v>
+        <v>1.091184</v>
       </c>
       <c r="I4">
-        <v>0.6280830667937196</v>
+        <v>0.3031196334509865</v>
       </c>
       <c r="J4">
-        <v>0.6280830667937196</v>
+        <v>0.3031196334509865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>7.400388144322332</v>
+        <v>5.427311701616001</v>
       </c>
       <c r="R4">
-        <v>7.400388144322332</v>
+        <v>48.845805314544</v>
       </c>
       <c r="S4">
-        <v>0.07834479082763876</v>
+        <v>0.03803842831994877</v>
       </c>
       <c r="T4">
-        <v>0.07834479082763876</v>
+        <v>0.03803842831994877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.29699205000861</v>
+        <v>0.520663</v>
       </c>
       <c r="H5">
-        <v>0.29699205000861</v>
+        <v>1.561989</v>
       </c>
       <c r="I5">
-        <v>0.3719169332062804</v>
+        <v>0.4339043947991109</v>
       </c>
       <c r="J5">
-        <v>0.3719169332062804</v>
+        <v>0.4339043947991109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>0.490182370304987</v>
+        <v>1.08574896716</v>
       </c>
       <c r="R5">
-        <v>0.490182370304987</v>
+        <v>9.771740704440001</v>
       </c>
       <c r="S5">
-        <v>0.005189354196023327</v>
+        <v>0.00760969454702165</v>
       </c>
       <c r="T5">
-        <v>0.005189354196023327</v>
+        <v>0.007609694547021649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.29699205000861</v>
+        <v>0.520663</v>
       </c>
       <c r="H6">
-        <v>0.29699205000861</v>
+        <v>1.561989</v>
       </c>
       <c r="I6">
-        <v>0.3719169332062804</v>
+        <v>0.4339043947991109</v>
       </c>
       <c r="J6">
-        <v>0.3719169332062804</v>
+        <v>0.4339043947991109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>30.25869160872248</v>
+        <v>53.054608448699</v>
       </c>
       <c r="R6">
-        <v>30.25869160872248</v>
+        <v>477.4914760382911</v>
       </c>
       <c r="S6">
-        <v>0.3203360173239227</v>
+        <v>0.3718441157374258</v>
       </c>
       <c r="T6">
-        <v>0.3203360173239227</v>
+        <v>0.3718441157374258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.520663</v>
+      </c>
+      <c r="H7">
+        <v>1.561989</v>
+      </c>
+      <c r="I7">
+        <v>0.4339043947991109</v>
+      </c>
+      <c r="J7">
+        <v>0.4339043947991109</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.921347</v>
+      </c>
+      <c r="N7">
+        <v>44.76404100000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="P7">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="Q7">
+        <v>7.768993293061001</v>
+      </c>
+      <c r="R7">
+        <v>69.92093963754901</v>
+      </c>
+      <c r="S7">
+        <v>0.0544505845146634</v>
+      </c>
+      <c r="T7">
+        <v>0.05445058451466339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3155576666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.9466730000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2629759717499027</v>
+      </c>
+      <c r="J8">
+        <v>0.2629759717499027</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.08532</v>
+      </c>
+      <c r="N8">
+        <v>6.25596</v>
+      </c>
+      <c r="O8">
+        <v>0.01753772176136817</v>
+      </c>
+      <c r="P8">
+        <v>0.01753772176136816</v>
+      </c>
+      <c r="Q8">
+        <v>0.6580387134533333</v>
+      </c>
+      <c r="R8">
+        <v>5.922348421080001</v>
+      </c>
+      <c r="S8">
+        <v>0.004611999422475208</v>
+      </c>
+      <c r="T8">
+        <v>0.004611999422475207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.29699205000861</v>
-      </c>
-      <c r="H7">
-        <v>0.29699205000861</v>
-      </c>
-      <c r="I7">
-        <v>0.3719169332062804</v>
-      </c>
-      <c r="J7">
-        <v>0.3719169332062804</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.7549771648983</v>
-      </c>
-      <c r="N7">
-        <v>14.7549771648983</v>
-      </c>
-      <c r="O7">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="P7">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="Q7">
-        <v>4.382110916033374</v>
-      </c>
-      <c r="R7">
-        <v>4.382110916033374</v>
-      </c>
-      <c r="S7">
-        <v>0.0463915616863344</v>
-      </c>
-      <c r="T7">
-        <v>0.0463915616863344</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3155576666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.9466730000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2629759717499027</v>
+      </c>
+      <c r="J9">
+        <v>0.2629759717499027</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>101.898173</v>
+      </c>
+      <c r="N9">
+        <v>305.694519</v>
+      </c>
+      <c r="O9">
+        <v>0.8569724579756384</v>
+      </c>
+      <c r="P9">
+        <v>0.8569724579756383</v>
+      </c>
+      <c r="Q9">
+        <v>32.15474970947633</v>
+      </c>
+      <c r="R9">
+        <v>289.3927473852871</v>
+      </c>
+      <c r="S9">
+        <v>0.2253631648990461</v>
+      </c>
+      <c r="T9">
+        <v>0.2253631648990461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3155576666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.9466730000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2629759717499027</v>
+      </c>
+      <c r="J10">
+        <v>0.2629759717499027</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.921347</v>
+      </c>
+      <c r="N10">
+        <v>44.76404100000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="P10">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="Q10">
+        <v>4.708545442843667</v>
+      </c>
+      <c r="R10">
+        <v>42.37690898559301</v>
+      </c>
+      <c r="S10">
+        <v>0.03300080742838134</v>
+      </c>
+      <c r="T10">
+        <v>0.03300080742838134</v>
       </c>
     </row>
   </sheetData>
